--- a/biology/Botanique/Glandularia/Glandularia.xlsx
+++ b/biology/Botanique/Glandularia/Glandularia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glandularia est un genre de plantes herbacées vivaces de la famille des Verbenaceae, originaire d'Amérique.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Billardiera Moench (1794).
 Shuttleworthia Meisn. (1840).
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS :
 Glandularia bipinnatifida (Nutt.) Nutt.
 Glandularia canadensis (L.) Nutt.
 Glandularia chiricahensis Umber
@@ -567,9 +583,43 @@
 Glandularia tenera (Spreng.) Cabrera
 Glandularia tumidula (Perry) Umber
 Glandularia verecunda Umber
-Glandularia wrightii (Gray) Umber
-Espèces
-Glandularia alejandrana  B.L.Turner 
+Glandularia wrightii (Gray) Umber</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Glandularia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glandularia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glandularia alejandrana  B.L.Turner 
 Glandularia amoena  (Paxton) Umber 
 Glandularia araucana  (Phil.) Botta 
 Glandularia aristigera  (S.Moore) Tronc. 
